--- a/Recommendation.xlsx
+++ b/Recommendation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bibhu1\Documents\Study\PG\Module\2 Git\LendingClubCaseStudy\LendingClubCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F74C2F-27CC-4254-9F17-251B6B08B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4901A9-BBA3-49B6-B7D0-6B8718CA8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14651" xr2:uid="{EB8B3EA8-2DE1-4687-8562-0AA638A9E61B}"/>
   </bookViews>

--- a/Recommendation.xlsx
+++ b/Recommendation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bibhu1\Documents\Study\PG\Module\2 Git\LendingClubCaseStudy\LendingClubCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4901A9-BBA3-49B6-B7D0-6B8718CA8E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C616E-6EC9-4C7A-B03B-B52BE9315BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14651" xr2:uid="{EB8B3EA8-2DE1-4687-8562-0AA638A9E61B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Varialbe/Feature</t>
   </si>
@@ -113,53 +113,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Any loan applicant with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anuual income less than 100K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should go through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hightened scrutiny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>dti</t>
   </si>
   <si>
@@ -217,125 +170,10 @@
     <t>grade, sub_grade</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The higher default rate in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>high intrerest rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> category evidently says it's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risky to offer high interest loan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to cutomers.</t>
-    </r>
-  </si>
-  <si>
     <t>The lending club grade and sub grade are related. The grades are in an ordinal scale where starting scale like A1,B1 have lower default rate which further increases by the end of the ordinal scale G5,F5.</t>
   </si>
   <si>
     <t>Home Ownership</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any loan applicant who has a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>credit age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">below 5 years </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">should go through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hightened scrutiny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -636,6 +474,49 @@
   </si>
   <si>
     <t xml:space="preserve">credit_age - derived from </t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>debt_consolidation has the largest share of all the approved loan.
+small_business loans has the higest default rates.
+major purchases loans has the lowest default rate among all loan purpose.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any loan applicant with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>annual income less than 100K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should go through heightened scrutiny</t>
+    </r>
+  </si>
+  <si>
+    <t>The higher default rate in high interest rate category evidently says it's risky to offer high interest loan to customers.</t>
+  </si>
+  <si>
+    <t>Any loan applicant who has a credit age  below 5 years should go through heightened scrutiny.</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D70CB-BA56-4D7D-A1EA-505671A65ECB}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1056,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60.1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1073,244 +954,252 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60.1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45.1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60.1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1327,6 +1216,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Recommendation.xlsx
+++ b/Recommendation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bibhu1\Documents\Study\PG\Module\2 Git\LendingClubCaseStudy\LendingClubCaseStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yukay\Documents\u\UpGrad\C2StatiticsEssentials\LendingClubCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C616E-6EC9-4C7A-B03B-B52BE9315BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D123876-43B3-40BE-ABC5-47C51115D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14651" xr2:uid="{EB8B3EA8-2DE1-4687-8562-0AA638A9E61B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB8B3EA8-2DE1-4687-8562-0AA638A9E61B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>Varialbe/Feature</t>
   </si>
@@ -66,92 +64,27 @@
     <t>annual_inc</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Any loan application with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loan amount above 15K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should go through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hightened scrutiny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>dti</t>
   </si>
   <si>
     <t xml:space="preserve">As expected, we found higher default rate for high DTI applicant. </t>
   </si>
   <si>
-    <t>For loan amount 15K and above we see an increasing trend of high default rate than low loan amount value.</t>
-  </si>
-  <si>
-    <t>The lower annual income applicant have higher default rate than the higher income applicant. In addition, for income below 100K we found an  increasing trend of high default rate.</t>
-  </si>
-  <si>
     <t>Interest rate</t>
   </si>
   <si>
     <t>int_rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower interest rates show lower default rates. We assuming this could be because customers are offered lower interest rate if they have good outstanding financial profile and capable of paying repayment. </t>
-  </si>
-  <si>
     <t>Debt to Income Ratio- DTI</t>
   </si>
   <si>
     <t>Loan to Income Ratio- LIR</t>
   </si>
   <si>
-    <t xml:space="preserve">As expected, we found higher default rate for high Loan to Income Ratio of  applicant. </t>
-  </si>
-  <si>
     <t>Credit Age</t>
   </si>
   <si>
-    <t>Employee Length</t>
-  </si>
-  <si>
-    <t>emp_length</t>
-  </si>
-  <si>
     <t>Categorical</t>
   </si>
   <si>
@@ -174,100 +107,6 @@
   </si>
   <si>
     <t>Home Ownership</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risky</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to offer loan to applicants with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>higher DTI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risky</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to offer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Loans of term 60 month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to applicants.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -321,56 +160,6 @@
 'Mortgage' type Home ownership has slightly lower default rate </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">It's </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>risky</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to offer loan to applicants with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>higher Loan to Income Ratio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Although the number of application with home ownership type 'Others' are significantly less but they should be marked as risk and highly scrutinized.</t>
-  </si>
-  <si>
     <t>home_ownership</t>
   </si>
   <si>
@@ -380,50 +169,10 @@
     <t>verification_status</t>
   </si>
   <si>
-    <t>Further investigation should be done on the income verfication status reported by lending club.</t>
-  </si>
-  <si>
     <t>We found the 'Not verified Status'  has lower default rate than 'Verified status' which looks incorrect.</t>
   </si>
   <si>
     <t>Delinq_2yrs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Application which have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>higher Delinq_2yrs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> marked by Lending club should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scrutinized further.</t>
-    </r>
   </si>
   <si>
     <t>The increase trend  in delinq_2yrs count from 0 to 11 also increases the Default rate.
@@ -431,9 +180,6 @@
   </si>
   <si>
     <t>open_acc</t>
-  </si>
-  <si>
-    <t>The customers with open credit line below 4 have higher default rate.</t>
   </si>
   <si>
     <t>pub_rec_bankruptcies</t>
@@ -488,6 +234,43 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Any loan application with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loan amount above 15K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should go through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hightened scrutiny</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Any loan applicant with </t>
     </r>
     <r>
@@ -499,7 +282,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>annual income less than 100K</t>
+      <t>annual income less than 80K</t>
     </r>
     <r>
       <rPr>
@@ -513,10 +296,196 @@
     </r>
   </si>
   <si>
-    <t>The higher default rate in high interest rate category evidently says it's risky to offer high interest loan to customers.</t>
-  </si>
-  <si>
-    <t>Any loan applicant who has a credit age  below 5 years should go through heightened scrutiny.</t>
+    <r>
+      <t xml:space="preserve">It's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to offer loan to applicants with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher DTI(&gt;10)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lower interest rates show lower default rates. We assume this could be because customers are offered lower interest rate if they have good outstanding financial profile and capable of paying repayment</t>
+  </si>
+  <si>
+    <t>The higher default rate in high interest rate category evidently says it's risky to offer high interest loan to customers. 
+Review the vost benefit analysis of Interest rate offerred to potential loss due to default</t>
+  </si>
+  <si>
+    <t>As expected, we found higher default rate for high Loan to Income Ratio of  applicant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to offer loan to applicants with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher Loan to Income Ratio(&gt;0.25)</t>
+    </r>
+  </si>
+  <si>
+    <t>Any loan applicant who has a credit age  below 5 years should go through heightened scrutiny</t>
+  </si>
+  <si>
+    <t>The customers with open credit line below 4 have higher default rate</t>
+  </si>
+  <si>
+    <t>Consider criteria for approving loan applications where customers have btween 0 and 4 open credit lines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to offer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Loans of term 60 month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to applicants. Consider offerring variable rates with varied terms</t>
+    </r>
+  </si>
+  <si>
+    <t>Although the number of application with home ownership type 'Others' are significantly less but they should be marked as risk and highly scrutinized. Dig deeper into the cases that are under the 'Other' and ensure the data is capture appropriately going forward</t>
+  </si>
+  <si>
+    <t>Further investigation should be done on the income verfication status reported by lending club</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application which have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>higher Delinq_2yrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> marked by Lending club should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scrutinized further</t>
+    </r>
+  </si>
+  <si>
+    <t>For loan amount 15K and above we see an increasing trend of high default rate than low loan amount value</t>
+  </si>
+  <si>
+    <t>The lower annual income applicant have higher default rate than the higher income applicant. In addition, for income below 80K we found an  increasing trend of high default rate</t>
+  </si>
+  <si>
+    <t>From a business perspective, understand the reasons behind this trend to validate the finding</t>
   </si>
 </sst>
 </file>
@@ -541,7 +510,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -574,12 +543,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,335 +871,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7D70CB-BA56-4D7D-A1EA-505671A65ECB}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.65" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45.1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60.1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60.1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="120.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45.1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60.1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.05" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="105.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="75.150000000000006" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
